--- a/PublicTools/econfigs/6_monster.xlsx
+++ b/PublicTools/econfigs/6_monster.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Family\叶烁\工作\xxpniu\MultiplayerGame\PublicTools\econfigs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712045F3-E457-44F7-9978-E84B85DE9AD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
     <sheet name="MonsterData" sheetId="3" r:id="rId2"/>
+    <sheet name="MonsterElite" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="64">
   <si>
     <t>MonsterData</t>
   </si>
@@ -185,12 +177,100 @@
     <t>掉落id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环颜色</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterElite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterElite.json</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +314,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -261,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -270,6 +362,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -537,10 +631,18 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -28432,14 +28534,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:J3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -38919,11 +39021,1205 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:K2 M2:R2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:K2 M2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I205"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" ht="15">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" ht="15">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" ht="15">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" ht="15">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" ht="15">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" ht="15">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" ht="15">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" ht="15">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" ht="15">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" ht="15">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" ht="15">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" ht="15">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" ht="15">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" ht="15">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" ht="15">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" ht="15">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" ht="15">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:3" ht="15">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="1:3" ht="15">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="1:3" ht="15">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="1:3" ht="15">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="1:3" ht="15">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="1:3" ht="15">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="1:3" ht="15">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="1:3" ht="15">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3" ht="15">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="1:3" ht="15">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" ht="15">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" ht="15">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" ht="15">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="1:3" ht="15">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="1:3" ht="15">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" ht="15">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3" ht="15">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="1:3" ht="15">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" ht="15">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="1:3" ht="15">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="1:3" ht="15">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" ht="15">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="1:3" ht="15">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" ht="15">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" ht="15">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" ht="15">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" ht="15">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="1:3" ht="15">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="1:3" ht="15">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:3" ht="15">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3" ht="15">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="1:3" ht="15">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3" ht="15">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="1:3" ht="15">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3" ht="15">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3" ht="15">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="1:3" ht="15">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="1:3" ht="15">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:3" ht="15">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="1:3" ht="15">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="1:3" ht="15">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="1:3" ht="15">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="1:3" ht="15">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" ht="15">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="1:3" ht="15">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="1:3" ht="15">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="1:3" ht="15">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="1:3" ht="15">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="1:3" ht="15">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="1:3" ht="15">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="1:3" ht="15">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="1:3" ht="15">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="1:3" ht="15">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="1:3" ht="15">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="1:3" ht="15">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="1:3" ht="15">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="1:3" ht="15">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="1:3" ht="15">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="1:3" ht="15">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="1:3" ht="15">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="1:3" ht="15">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="1:3" ht="15">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="1:3" ht="15">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="1:3" ht="15">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="1:3" ht="15">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="1:3" ht="15">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="1:3" ht="15">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="1:3" ht="15">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="1:3" ht="15">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:3" ht="15">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="1:3" ht="15">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="1:3" ht="15">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="1:3" ht="15">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:3" ht="15">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="1:3" ht="15">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="4"/>
+    </row>
+    <row r="178" spans="1:3" ht="15">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="4"/>
+    </row>
+    <row r="179" spans="1:3" ht="15">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="1:3" ht="15">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="4"/>
+    </row>
+    <row r="181" spans="1:3" ht="15">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="4"/>
+    </row>
+    <row r="182" spans="1:3" ht="15">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="4"/>
+    </row>
+    <row r="183" spans="1:3" ht="15">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="1:3" ht="15">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="4"/>
+    </row>
+    <row r="185" spans="1:3" ht="15">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="1:3" ht="15">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="4"/>
+    </row>
+    <row r="187" spans="1:3" ht="15">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="1:3" ht="15">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="4"/>
+    </row>
+    <row r="189" spans="1:3" ht="15">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="1:3" ht="15">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="4"/>
+    </row>
+    <row r="191" spans="1:3" ht="15">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="1:3" ht="15">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="4"/>
+    </row>
+    <row r="193" spans="1:3" ht="15">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="4"/>
+    </row>
+    <row r="194" spans="1:3" ht="15">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="4"/>
+    </row>
+    <row r="195" spans="1:3" ht="15">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="4"/>
+    </row>
+    <row r="196" spans="1:3" ht="15">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="4"/>
+    </row>
+    <row r="197" spans="1:3" ht="15">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="4"/>
+    </row>
+    <row r="198" spans="1:3" ht="15">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="1:3" ht="15">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="4"/>
+    </row>
+    <row r="200" spans="1:3" ht="15">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="4"/>
+    </row>
+    <row r="201" spans="1:3" ht="15">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="4"/>
+    </row>
+    <row r="202" spans="1:3" ht="15">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="4"/>
+    </row>
+    <row r="203" spans="1:3" ht="15">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="4"/>
+    </row>
+    <row r="204" spans="1:3" ht="15">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="4"/>
+    </row>
+    <row r="205" spans="1:3" ht="15">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:I2">
+      <formula1>"String,Int,DateTime,Float"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PublicTools/econfigs/6_monster.xlsx
+++ b/PublicTools/econfigs/6_monster.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82865A87-3AF7-2E4E-90BA-202C2951ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
     <sheet name="MonsterData" sheetId="3" r:id="rId2"/>
     <sheet name="MonsterElite" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="66">
   <si>
     <t>MonsterData</t>
   </si>
@@ -160,13 +177,6 @@
     <t>属性值</t>
   </si>
   <si>
-    <t>1|2|3|8|9|6</t>
-  </si>
-  <si>
-    <t>1|2|3|8|9|6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DropId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -265,12 +275,27 @@
     <t>精英怪表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>ViewDistance</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|8|9|6|20</t>
+  </si>
+  <si>
+    <t>1|2|3|8|9|6|20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +351,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -354,16 +386,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -578,20 +610,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="26" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -632,16 +664,16 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -28534,30 +28566,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4:J205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="13" max="18" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="37.5" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="13" max="18" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.5" customHeight="1">
+    <row r="1" spans="1:19" ht="13.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -28589,7 +28621,7 @@
         <v>34</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>18</v>
@@ -28609,8 +28641,11 @@
       <c r="R1" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -28642,7 +28677,7 @@
         <v>35</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>11</v>
@@ -28662,8 +28697,11 @@
       <c r="R2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -28695,7 +28733,7 @@
         <v>37</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>25</v>
@@ -28715,8 +28753,11 @@
       <c r="R3" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S3" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>100101001</v>
@@ -28741,11 +28782,11 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f t="shared" ref="J4:J67" si="0">M4&amp;"|"&amp;N4&amp;"|"&amp;O4&amp;"|"&amp;P4&amp;"|"&amp;Q4&amp;"|"&amp;R4</f>
-        <v>1|0|12|175|1000|0</v>
+        <f>M4&amp;"|"&amp;N4&amp;"|"&amp;O4&amp;"|"&amp;P4&amp;"|"&amp;Q4&amp;"|"&amp;R4&amp;"|"&amp;S4</f>
+        <v>1|0|12|175|1000|0|500</v>
       </c>
       <c r="K4" s="2"/>
       <c r="M4" s="2">
@@ -28766,14 +28807,17 @@
       <c r="R4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S4" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>100102001</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f t="shared" ref="C5:C68" si="1">"MonsterName_"&amp;D5</f>
+        <f t="shared" ref="C5:C68" si="0">"MonsterName_"&amp;D5</f>
         <v>MonsterName_1002</v>
       </c>
       <c r="D5" s="4">
@@ -28792,11 +28836,11 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2|0|24|100|500|0</v>
+        <f t="shared" ref="J5:J68" si="1">M5&amp;"|"&amp;N5&amp;"|"&amp;O5&amp;"|"&amp;P5&amp;"|"&amp;Q5&amp;"|"&amp;R5&amp;"|"&amp;S5</f>
+        <v>2|0|24|100|500|0|500</v>
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="2">
@@ -28817,14 +28861,17 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S5" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>100101002</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1001</v>
       </c>
       <c r="D6" s="4">
@@ -28843,11 +28890,11 @@
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3|0|12|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>3|0|12|175|1000|0|500</v>
       </c>
       <c r="K6" s="2"/>
       <c r="M6" s="2">
@@ -28868,14 +28915,17 @@
       <c r="R6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S6" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>100102002</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1002</v>
       </c>
       <c r="D7" s="4">
@@ -28894,11 +28944,11 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>4|0|23|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>4|0|23|100|500|0|500</v>
       </c>
       <c r="K7" s="2"/>
       <c r="M7" s="2">
@@ -28919,14 +28969,17 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S7" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="13.5" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>100101003</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1001</v>
       </c>
       <c r="D8" s="4">
@@ -28945,11 +28998,11 @@
         <v>3</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>4|0|27|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>4|0|27|175|1000|0|500</v>
       </c>
       <c r="K8" s="2"/>
       <c r="M8" s="2">
@@ -28970,14 +29023,17 @@
       <c r="R8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S8" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>100102003</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1002</v>
       </c>
       <c r="D9" s="2">
@@ -28996,11 +29052,11 @@
         <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>6|1|54|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>6|1|54|100|500|0|500</v>
       </c>
       <c r="K9" s="2"/>
       <c r="M9" s="2">
@@ -29021,14 +29077,17 @@
       <c r="R9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S9" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="13.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>100104003</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1004</v>
       </c>
       <c r="D10" s="2">
@@ -29047,11 +29106,11 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>7|0|45|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>7|0|45|150|750|0|500</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="2">
@@ -29072,14 +29131,17 @@
       <c r="R10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S10" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>100101004</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1001</v>
       </c>
       <c r="D11" s="2">
@@ -29098,11 +29160,11 @@
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>7|1|41|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>7|1|41|175|1000|0|500</v>
       </c>
       <c r="K11" s="2"/>
       <c r="M11" s="2">
@@ -29123,14 +29185,17 @@
       <c r="R11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>100102004</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1002</v>
       </c>
       <c r="D12" s="2">
@@ -29149,11 +29214,11 @@
         <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>10|1|81|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>10|1|81|100|500|0|500</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" s="2">
@@ -29174,14 +29239,17 @@
       <c r="R12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S12" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>100103004</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1003</v>
       </c>
       <c r="D13" s="2">
@@ -29200,11 +29268,11 @@
         <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>12|0|54|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>12|0|54|100|250|0|500</v>
       </c>
       <c r="K13" s="2"/>
       <c r="M13" s="2">
@@ -29225,14 +29293,17 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S13" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="13.5" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>100101005</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1001</v>
       </c>
       <c r="D14" s="2">
@@ -29251,11 +29322,11 @@
         <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>9|1|58|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>9|1|58|175|1000|0|500</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" s="2">
@@ -29276,14 +29347,17 @@
       <c r="R14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S14" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="13.5" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>100102005</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1002</v>
       </c>
       <c r="D15" s="2">
@@ -29302,11 +29376,11 @@
         <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>14|2|116|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>14|2|116|100|500|0|500</v>
       </c>
       <c r="K15" s="2"/>
       <c r="M15" s="2">
@@ -29327,14 +29401,17 @@
       <c r="R15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S15" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="13.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>100103005</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1003</v>
       </c>
       <c r="D16" s="2">
@@ -29353,11 +29430,11 @@
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>17|0|77|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>17|0|77|100|250|0|500</v>
       </c>
       <c r="K16" s="2"/>
       <c r="M16" s="2">
@@ -29378,14 +29455,17 @@
       <c r="R16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S16" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="13.5" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>100104005</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1004</v>
       </c>
       <c r="D17" s="2">
@@ -29404,11 +29484,11 @@
         <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>16|1|96|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>16|1|96|150|750|0|500</v>
       </c>
       <c r="K17" s="2"/>
       <c r="M17" s="2">
@@ -29429,14 +29509,17 @@
       <c r="R17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S17" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="13.5" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>100101006</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1001</v>
       </c>
       <c r="D18" s="2">
@@ -29455,11 +29538,11 @@
         <v>6</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>13|2|81|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>13|2|81|175|1000|0|500</v>
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="2">
@@ -29480,14 +29563,17 @@
       <c r="R18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S18" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="13.5" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>100102006</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1002</v>
       </c>
       <c r="D19" s="2">
@@ -29506,11 +29592,11 @@
         <v>6</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>18|3|161|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>18|3|161|100|500|0|500</v>
       </c>
       <c r="K19" s="2"/>
       <c r="M19" s="2">
@@ -29531,14 +29617,17 @@
       <c r="R19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S19" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="13.5" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>100103006</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1003</v>
       </c>
       <c r="D20" s="2">
@@ -29557,11 +29646,11 @@
         <v>6</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>23|0|108|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>23|0|108|100|250|0|500</v>
       </c>
       <c r="K20" s="2"/>
       <c r="M20" s="2">
@@ -29582,14 +29671,17 @@
       <c r="R20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S20" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="13.5" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>100104006</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1004</v>
       </c>
       <c r="D21" s="2">
@@ -29608,11 +29700,11 @@
         <v>6</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>21|2|135|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>21|2|135|150|750|0|500</v>
       </c>
       <c r="K21" s="2"/>
       <c r="M21" s="2">
@@ -29633,14 +29725,17 @@
       <c r="R21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S21" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="13.5" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>100199006</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_1099</v>
       </c>
       <c r="D22" s="2">
@@ -29659,11 +29754,11 @@
         <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>55|8|5380|150|500|0</v>
+        <f t="shared" si="1"/>
+        <v>55|8|5380|150|500|0|500</v>
       </c>
       <c r="K22" s="2"/>
       <c r="M22" s="2">
@@ -29684,14 +29779,17 @@
       <c r="R22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S22" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>100201007</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D23" s="2">
@@ -29710,11 +29808,11 @@
         <v>7</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>12|2|97|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>12|2|97|175|1000|0|500</v>
       </c>
       <c r="K23" s="2"/>
       <c r="M23" s="2">
@@ -29735,14 +29833,17 @@
       <c r="R23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S23" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="13.5" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>100202007</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D24" s="2">
@@ -29761,11 +29862,11 @@
         <v>7</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>18|4|193|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>18|4|193|100|500|0|500</v>
       </c>
       <c r="K24" s="2"/>
       <c r="M24" s="2">
@@ -29786,14 +29887,17 @@
       <c r="R24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S24" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="13.5" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>100201008</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D25" s="2">
@@ -29812,11 +29916,11 @@
         <v>8</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>14|2|121|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>14|2|121|175|1000|0|500</v>
       </c>
       <c r="K25" s="2"/>
       <c r="M25" s="2">
@@ -29837,14 +29941,17 @@
       <c r="R25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S25" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>100202008</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D26" s="2">
@@ -29863,11 +29970,11 @@
         <v>8</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20|4|242|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>20|4|242|100|500|0|500</v>
       </c>
       <c r="K26" s="2"/>
       <c r="M26" s="2">
@@ -29888,14 +29995,17 @@
       <c r="R26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S26" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="13.5" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>100204008</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D27" s="2">
@@ -29914,11 +30024,11 @@
         <v>8</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>23|2|202|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>23|2|202|150|750|0|500</v>
       </c>
       <c r="K27" s="2"/>
       <c r="M27" s="2">
@@ -29939,14 +30049,17 @@
       <c r="R27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S27" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="13.5" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>100201009</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D28" s="2">
@@ -29965,11 +30078,11 @@
         <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>15|2|149|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>15|2|149|175|1000|0|500</v>
       </c>
       <c r="K28" s="2"/>
       <c r="M28" s="2">
@@ -29990,14 +30103,17 @@
       <c r="R28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S28" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="13.5" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>100202009</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D29" s="2">
@@ -30016,11 +30132,11 @@
         <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>22|5|298|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>22|5|298|100|500|0|500</v>
       </c>
       <c r="K29" s="2"/>
       <c r="M29" s="2">
@@ -30041,14 +30157,17 @@
       <c r="R29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S29" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="13.5" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>100203009</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D30" s="2">
@@ -30067,11 +30186,11 @@
         <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>28|0|199|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>28|0|199|100|250|0|500</v>
       </c>
       <c r="K30" s="2"/>
       <c r="M30" s="2">
@@ -30092,14 +30211,17 @@
       <c r="R30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S30" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="13.5" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>100201010</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D31" s="2">
@@ -30118,11 +30240,11 @@
         <v>10</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>17|3|181|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>17|3|181|175|1000|0|500</v>
       </c>
       <c r="K31" s="2"/>
       <c r="M31" s="2">
@@ -30143,14 +30265,17 @@
       <c r="R31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S31" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="13.5" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>100202010</v>
       </c>
       <c r="C32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D32" s="2">
@@ -30169,11 +30294,11 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>24|5|363|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>24|5|363|100|500|0|500</v>
       </c>
       <c r="K32" s="2"/>
       <c r="M32" s="2">
@@ -30194,14 +30319,17 @@
       <c r="R32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S32" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="13.5" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>100203010</v>
       </c>
       <c r="C33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D33" s="2">
@@ -30220,11 +30348,11 @@
         <v>10</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>30|0|242|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>30|0|242|100|250|0|500</v>
       </c>
       <c r="K33" s="2"/>
       <c r="M33" s="2">
@@ -30245,14 +30373,17 @@
       <c r="R33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S33" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="13.5" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>100204010</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D34" s="2">
@@ -30271,11 +30402,11 @@
         <v>10</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>28|3|302|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>28|3|302|150|750|0|500</v>
       </c>
       <c r="K34" s="2"/>
       <c r="M34" s="2">
@@ -30296,14 +30427,17 @@
       <c r="R34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S34" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="13.5" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>100201011</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D35" s="2">
@@ -30322,11 +30456,11 @@
         <v>11</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>19|3|218|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>19|3|218|175|1000|0|500</v>
       </c>
       <c r="K35" s="2"/>
       <c r="M35" s="2">
@@ -30347,14 +30481,17 @@
       <c r="R35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S35" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="13.5" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
         <v>100202011</v>
       </c>
       <c r="C36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D36" s="2">
@@ -30373,11 +30510,11 @@
         <v>11</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>27|6|435|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>27|6|435|100|500|0|500</v>
       </c>
       <c r="K36" s="2"/>
       <c r="M36" s="2">
@@ -30398,14 +30535,17 @@
       <c r="R36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S36" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="13.5" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>100203011</v>
       </c>
       <c r="C37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D37" s="2">
@@ -30424,11 +30564,11 @@
         <v>11</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>33|0|290|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>33|0|290|100|250|0|500</v>
       </c>
       <c r="K37" s="2"/>
       <c r="M37" s="2">
@@ -30449,14 +30589,17 @@
       <c r="R37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S37" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="13.5" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>100204011</v>
       </c>
       <c r="C38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D38" s="2">
@@ -30475,11 +30618,11 @@
         <v>11</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>31|3|363|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>31|3|363|150|750|0|500</v>
       </c>
       <c r="K38" s="2"/>
       <c r="M38" s="2">
@@ -30500,14 +30643,17 @@
       <c r="R38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S38" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="13.5" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>100101011</v>
       </c>
       <c r="C39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D39" s="2">
@@ -30526,11 +30672,11 @@
         <v>11</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>19|3|218|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>19|3|218|175|1000|0|500</v>
       </c>
       <c r="K39" s="2"/>
       <c r="M39" s="2">
@@ -30551,14 +30697,17 @@
       <c r="R39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S39" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="13.5" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>100102011</v>
       </c>
       <c r="C40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D40" s="2">
@@ -30577,11 +30726,11 @@
         <v>11</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>27|6|435|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>27|6|435|100|500|0|500</v>
       </c>
       <c r="K40" s="2"/>
       <c r="M40" s="2">
@@ -30602,14 +30751,17 @@
       <c r="R40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S40" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="13.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>100201012</v>
       </c>
       <c r="C41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D41" s="2">
@@ -30628,11 +30780,11 @@
         <v>12</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20|3|258|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>20|3|258|175|1000|0|500</v>
       </c>
       <c r="K41" s="2"/>
       <c r="M41" s="2">
@@ -30653,14 +30805,17 @@
       <c r="R41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S41" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="13.5" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>100202012</v>
       </c>
       <c r="C42" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D42" s="2">
@@ -30679,11 +30834,11 @@
         <v>12</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>29|6|517|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>29|6|517|100|500|0|500</v>
       </c>
       <c r="K42" s="2"/>
       <c r="M42" s="2">
@@ -30704,14 +30859,17 @@
       <c r="R42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S42" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="13.5" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>100203012</v>
       </c>
       <c r="C43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D43" s="2">
@@ -30730,11 +30888,11 @@
         <v>12</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>36|0|344|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>36|0|344|100|250|0|500</v>
       </c>
       <c r="K43" s="2"/>
       <c r="M43" s="2">
@@ -30755,14 +30913,17 @@
       <c r="R43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S43" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="13.5" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>100204012</v>
       </c>
       <c r="C44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D44" s="2">
@@ -30781,11 +30942,11 @@
         <v>12</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>33|3|431|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>33|3|431|150|750|0|500</v>
       </c>
       <c r="K44" s="2"/>
       <c r="M44" s="2">
@@ -30806,14 +30967,17 @@
       <c r="R44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S44" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="13.5" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>100101012</v>
       </c>
       <c r="C45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D45" s="2">
@@ -30832,11 +30996,11 @@
         <v>12</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>20|3|258|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>20|3|258|175|1000|0|500</v>
       </c>
       <c r="K45" s="2"/>
       <c r="M45" s="2">
@@ -30857,14 +31021,17 @@
       <c r="R45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S45" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="13.5" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>100102012</v>
       </c>
       <c r="C46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D46" s="2">
@@ -30883,11 +31050,11 @@
         <v>12</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>29|6|517|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>29|6|517|100|500|0|500</v>
       </c>
       <c r="K46" s="2"/>
       <c r="M46" s="2">
@@ -30908,14 +31075,17 @@
       <c r="R46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S46" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="13.5" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>100201013</v>
       </c>
       <c r="C47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D47" s="2">
@@ -30934,11 +31104,11 @@
         <v>13</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>22|3|304|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>22|3|304|175|1000|0|500</v>
       </c>
       <c r="K47" s="2"/>
       <c r="M47" s="2">
@@ -30959,14 +31129,17 @@
       <c r="R47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S47" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="13.5" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>100202013</v>
       </c>
       <c r="C48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D48" s="2">
@@ -30985,11 +31158,11 @@
         <v>13</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>31|7|607|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>31|7|607|100|500|0|500</v>
       </c>
       <c r="K48" s="2"/>
       <c r="M48" s="2">
@@ -31010,14 +31183,17 @@
       <c r="R48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S48" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="13.5" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>100203013</v>
       </c>
       <c r="C49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D49" s="2">
@@ -31036,11 +31212,11 @@
         <v>13</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>39|0|405|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>39|0|405|100|250|0|500</v>
       </c>
       <c r="K49" s="2"/>
       <c r="M49" s="2">
@@ -31061,14 +31237,17 @@
       <c r="R49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S49" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="13.5" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>100204013</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D50" s="2">
@@ -31087,11 +31266,11 @@
         <v>13</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>36|3|506|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>36|3|506|150|750|0|500</v>
       </c>
       <c r="K50" s="2"/>
       <c r="M50" s="2">
@@ -31112,14 +31291,17 @@
       <c r="R50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S50" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="13.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
         <v>100101013</v>
       </c>
       <c r="C51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D51" s="2">
@@ -31138,11 +31320,11 @@
         <v>13</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>22|3|304|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>22|3|304|175|1000|0|500</v>
       </c>
       <c r="K51" s="2"/>
       <c r="M51" s="2">
@@ -31163,14 +31345,17 @@
       <c r="R51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S51" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="13.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
         <v>100102013</v>
       </c>
       <c r="C52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D52" s="2">
@@ -31189,11 +31374,11 @@
         <v>13</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>31|7|607|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>31|7|607|100|500|0|500</v>
       </c>
       <c r="K52" s="2"/>
       <c r="M52" s="2">
@@ -31214,14 +31399,17 @@
       <c r="R52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S52" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="13.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
         <v>100103013</v>
       </c>
       <c r="C53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D53" s="2">
@@ -31240,11 +31428,11 @@
         <v>13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>39|0|405|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>39|0|405|100|250|0|500</v>
       </c>
       <c r="K53" s="2"/>
       <c r="M53" s="2">
@@ -31265,14 +31453,17 @@
       <c r="R53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S53" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="13.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>100201014</v>
       </c>
       <c r="C54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D54" s="2">
@@ -31291,11 +31482,11 @@
         <v>14</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>23|4|354|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>23|4|354|175|1000|0|500</v>
       </c>
       <c r="K54" s="2"/>
       <c r="M54" s="2">
@@ -31316,14 +31507,17 @@
       <c r="R54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S54" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="13.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
         <v>100202014</v>
       </c>
       <c r="C55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D55" s="2">
@@ -31342,11 +31536,11 @@
         <v>14</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>33|7|708|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>33|7|708|100|500|0|500</v>
       </c>
       <c r="K55" s="2"/>
       <c r="M55" s="2">
@@ -31367,14 +31561,17 @@
       <c r="R55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S55" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="13.5" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>100203014</v>
       </c>
       <c r="C56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D56" s="2">
@@ -31393,11 +31590,11 @@
         <v>14</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>42|0|472|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>42|0|472|100|250|0|500</v>
       </c>
       <c r="K56" s="2"/>
       <c r="M56" s="2">
@@ -31418,14 +31615,17 @@
       <c r="R56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S56" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="13.5" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2">
         <v>100204014</v>
       </c>
       <c r="C57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D57" s="2">
@@ -31444,11 +31644,11 @@
         <v>14</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>38|4|590|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>38|4|590|150|750|0|500</v>
       </c>
       <c r="K57" s="2"/>
       <c r="M57" s="2">
@@ -31469,14 +31669,17 @@
       <c r="R57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S57" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="13.5" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2">
         <v>100102014</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D58" s="2">
@@ -31495,11 +31698,11 @@
         <v>14</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>33|7|708|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>33|7|708|100|500|0|500</v>
       </c>
       <c r="K58" s="2"/>
       <c r="M58" s="2">
@@ -31520,14 +31723,17 @@
       <c r="R58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S58" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="13.5" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>100103014</v>
       </c>
       <c r="C59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D59" s="2">
@@ -31546,11 +31752,11 @@
         <v>14</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>42|0|472|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>42|0|472|100|250|0|500</v>
       </c>
       <c r="K59" s="2"/>
       <c r="M59" s="2">
@@ -31571,14 +31777,17 @@
       <c r="R59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S59" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="13.5" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>100104014</v>
       </c>
       <c r="C60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D60" s="2">
@@ -31597,11 +31806,11 @@
         <v>14</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>38|4|590|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>38|4|590|150|750|0|500</v>
       </c>
       <c r="K60" s="2"/>
       <c r="M60" s="2">
@@ -31622,14 +31831,17 @@
       <c r="R60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S60" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="13.5" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2">
         <v>100201015</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D61" s="2">
@@ -31648,11 +31860,11 @@
         <v>15</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>25|4|410|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>25|4|410|175|1000|0|500</v>
       </c>
       <c r="K61" s="2"/>
       <c r="M61" s="2">
@@ -31673,14 +31885,17 @@
       <c r="R61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S61" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="13.5" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2">
         <v>100202015</v>
       </c>
       <c r="C62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D62" s="2">
@@ -31699,11 +31914,11 @@
         <v>15</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>36|8|819|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>36|8|819|100|500|0|500</v>
       </c>
       <c r="K62" s="2"/>
       <c r="M62" s="2">
@@ -31724,14 +31939,17 @@
       <c r="R62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S62" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="13.5" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2">
         <v>100203015</v>
       </c>
       <c r="C63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D63" s="2">
@@ -31750,11 +31968,11 @@
         <v>15</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>45|0|546|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>45|0|546|100|250|0|500</v>
       </c>
       <c r="K63" s="2"/>
       <c r="M63" s="2">
@@ -31775,14 +31993,17 @@
       <c r="R63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S63" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="13.5" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2">
         <v>100204015</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D64" s="2">
@@ -31801,11 +32022,11 @@
         <v>15</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>41|4|683|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>41|4|683|150|750|0|500</v>
       </c>
       <c r="K64" s="2"/>
       <c r="M64" s="2">
@@ -31826,14 +32047,17 @@
       <c r="R64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S64" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="13.5" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>100101015</v>
       </c>
       <c r="C65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2001</v>
       </c>
       <c r="D65" s="2">
@@ -31852,11 +32076,11 @@
         <v>15</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>25|4|410|175|1000|0</v>
+        <f t="shared" si="1"/>
+        <v>25|4|410|175|1000|0|500</v>
       </c>
       <c r="K65" s="2"/>
       <c r="M65" s="2">
@@ -31877,14 +32101,17 @@
       <c r="R65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S65" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="13.5" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2">
         <v>100102015</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2002</v>
       </c>
       <c r="D66" s="2">
@@ -31903,11 +32130,11 @@
         <v>15</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>36|8|819|100|500|0</v>
+        <f t="shared" si="1"/>
+        <v>36|8|819|100|500|0|500</v>
       </c>
       <c r="K66" s="2"/>
       <c r="M66" s="2">
@@ -31928,14 +32155,17 @@
       <c r="R66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S66" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="13.5" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>100103015</v>
       </c>
       <c r="C67" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2003</v>
       </c>
       <c r="D67" s="2">
@@ -31954,11 +32184,11 @@
         <v>15</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J67" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>45|0|546|100|250|0</v>
+        <f t="shared" si="1"/>
+        <v>45|0|546|100|250|0|500</v>
       </c>
       <c r="K67" s="2"/>
       <c r="M67" s="2">
@@ -31979,14 +32209,17 @@
       <c r="R67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S67" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="13.5" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2">
         <v>100104015</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>MonsterName_2004</v>
       </c>
       <c r="D68" s="2">
@@ -32005,11 +32238,11 @@
         <v>15</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f t="shared" ref="J68:J131" si="2">M68&amp;"|"&amp;N68&amp;"|"&amp;O68&amp;"|"&amp;P68&amp;"|"&amp;Q68&amp;"|"&amp;R68</f>
-        <v>41|4|683|150|750|0</v>
+        <f t="shared" si="1"/>
+        <v>41|4|683|150|750|0|500</v>
       </c>
       <c r="K68" s="2"/>
       <c r="M68" s="2">
@@ -32030,14 +32263,17 @@
       <c r="R68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S68" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="13.5" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2">
         <v>100299015</v>
       </c>
       <c r="C69" s="4" t="str">
-        <f t="shared" ref="C69:C132" si="3">"MonsterName_"&amp;D69</f>
+        <f t="shared" ref="C69:C132" si="2">"MonsterName_"&amp;D69</f>
         <v>MonsterName_2099</v>
       </c>
       <c r="D69" s="2">
@@ -32056,11 +32292,11 @@
         <v>15</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>107|19|27300|150|500|0</v>
+        <f t="shared" ref="J69:J132" si="3">M69&amp;"|"&amp;N69&amp;"|"&amp;O69&amp;"|"&amp;P69&amp;"|"&amp;Q69&amp;"|"&amp;R69&amp;"|"&amp;S69</f>
+        <v>107|19|27300|150|500|0|500</v>
       </c>
       <c r="K69" s="2"/>
       <c r="M69" s="2">
@@ -32081,14 +32317,17 @@
       <c r="R69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S69" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="13.5" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>100301016</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D70" s="2">
@@ -32107,11 +32346,11 @@
         <v>16</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>28|4|377|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>28|4|377|175|1000|0|500</v>
       </c>
       <c r="K70" s="2"/>
       <c r="M70" s="2">
@@ -32132,14 +32371,17 @@
       <c r="R70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S70" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="13.5" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2">
         <v>100302016</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D71" s="2">
@@ -32158,11 +32400,11 @@
         <v>16</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>41|8|753|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>41|8|753|100|500|0|500</v>
       </c>
       <c r="K71" s="2"/>
       <c r="M71" s="2">
@@ -32183,14 +32425,17 @@
       <c r="R71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S71" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="13.5" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2">
         <v>100301017</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D72" s="2">
@@ -32209,11 +32454,11 @@
         <v>17</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>30|4|434|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>30|4|434|175|1000|0|500</v>
       </c>
       <c r="K72" s="2"/>
       <c r="M72" s="2">
@@ -32234,14 +32479,17 @@
       <c r="R72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S72" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="13.5" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
         <v>100302017</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D73" s="2">
@@ -32260,11 +32508,11 @@
         <v>17</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>43|9|868|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>43|9|868|100|500|0|500</v>
       </c>
       <c r="K73" s="2"/>
       <c r="M73" s="2">
@@ -32285,14 +32533,17 @@
       <c r="R73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S73" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="13.5" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
         <v>100303017</v>
       </c>
       <c r="C74" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D74" s="2">
@@ -32311,11 +32562,11 @@
         <v>17</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>54|0|579|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>54|0|579|100|250|0|500</v>
       </c>
       <c r="K74" s="2"/>
       <c r="M74" s="2">
@@ -32336,14 +32587,17 @@
       <c r="R74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S74" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="13.5" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>100301018</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D75" s="2">
@@ -32362,11 +32616,11 @@
         <v>18</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>31|5|497|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>31|5|497|175|1000|0|500</v>
       </c>
       <c r="K75" s="2"/>
       <c r="M75" s="2">
@@ -32387,14 +32641,17 @@
       <c r="R75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S75" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="13.5" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2">
         <v>100303018</v>
       </c>
       <c r="C76" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D76" s="2">
@@ -32413,11 +32670,11 @@
         <v>18</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>56|0|663|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>56|0|663|100|250|0|500</v>
       </c>
       <c r="K76" s="2"/>
       <c r="M76" s="2">
@@ -32438,14 +32695,17 @@
       <c r="R76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S76" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="13.5" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2">
         <v>100304018</v>
       </c>
       <c r="C77" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3004</v>
       </c>
       <c r="D77" s="2">
@@ -32464,11 +32724,11 @@
         <v>18</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>52|5|828|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>52|5|828|150|750|0|500</v>
       </c>
       <c r="K77" s="2"/>
       <c r="M77" s="2">
@@ -32489,14 +32749,17 @@
       <c r="R77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S77" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="13.5" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2">
         <v>100301019</v>
       </c>
       <c r="C78" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D78" s="2">
@@ -32515,11 +32778,11 @@
         <v>19</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>33|5|566|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>33|5|566|175|1000|0|500</v>
       </c>
       <c r="K78" s="2"/>
       <c r="M78" s="2">
@@ -32540,14 +32803,17 @@
       <c r="R78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S78" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="13.5" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2">
         <v>100302019</v>
       </c>
       <c r="C79" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D79" s="2">
@@ -32566,11 +32832,11 @@
         <v>19</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>47|10|1132|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>47|10|1132|100|500|0|500</v>
       </c>
       <c r="K79" s="2"/>
       <c r="M79" s="2">
@@ -32591,14 +32857,17 @@
       <c r="R79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S79" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="13.5" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2">
         <v>100303019</v>
       </c>
       <c r="C80" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D80" s="2">
@@ -32617,11 +32886,11 @@
         <v>19</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>59|0|754|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>59|0|754|100|250|0|500</v>
       </c>
       <c r="K80" s="2"/>
       <c r="M80" s="2">
@@ -32642,14 +32911,17 @@
       <c r="R80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S80" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="13.5" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>100304019</v>
       </c>
       <c r="C81" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3004</v>
       </c>
       <c r="D81" s="2">
@@ -32668,11 +32940,11 @@
         <v>19</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>54|5|943|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>54|5|943|150|750|0|500</v>
       </c>
       <c r="K81" s="2"/>
       <c r="M81" s="2">
@@ -32693,14 +32965,17 @@
       <c r="R81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S81" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="13.5" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2">
         <v>100201019</v>
       </c>
       <c r="C82" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D82" s="2">
@@ -32719,11 +32994,11 @@
         <v>19</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>33|5|566|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>33|5|566|175|1000|0|500</v>
       </c>
       <c r="K82" s="2"/>
       <c r="M82" s="2">
@@ -32744,14 +33019,17 @@
       <c r="R82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S82" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="13.5" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2">
         <v>100202019</v>
       </c>
       <c r="C83" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D83" s="2">
@@ -32770,11 +33048,11 @@
         <v>19</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>47|10|1132|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>47|10|1132|100|500|0|500</v>
       </c>
       <c r="K83" s="2"/>
       <c r="M83" s="2">
@@ -32795,14 +33073,17 @@
       <c r="R83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S83" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="13.5" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2">
         <v>100301020</v>
       </c>
       <c r="C84" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D84" s="2">
@@ -32821,11 +33102,11 @@
         <v>20</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>35|5|648|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>35|5|648|175|1000|0|500</v>
       </c>
       <c r="K84" s="2"/>
       <c r="M84" s="2">
@@ -32846,14 +33127,17 @@
       <c r="R84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S84" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="13.5" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2">
         <v>100302020</v>
       </c>
       <c r="C85" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D85" s="2">
@@ -32872,11 +33156,11 @@
         <v>20</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>49|10|1296|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>49|10|1296|100|500|0|500</v>
       </c>
       <c r="K85" s="2"/>
       <c r="M85" s="2">
@@ -32897,14 +33181,17 @@
       <c r="R85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S85" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="13.5" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2">
         <v>100303020</v>
       </c>
       <c r="C86" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D86" s="2">
@@ -32923,11 +33210,11 @@
         <v>20</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>62|0|864|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>62|0|864|100|250|0|500</v>
       </c>
       <c r="K86" s="2"/>
       <c r="M86" s="2">
@@ -32948,14 +33235,17 @@
       <c r="R86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S86" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="13.5" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2">
         <v>100304020</v>
       </c>
       <c r="C87" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3004</v>
       </c>
       <c r="D87" s="2">
@@ -32974,11 +33264,11 @@
         <v>20</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>57|5|1080|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>57|5|1080|150|750|0|500</v>
       </c>
       <c r="K87" s="2"/>
       <c r="M87" s="2">
@@ -32999,14 +33289,17 @@
       <c r="R87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S87" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="13.5" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>100201020</v>
       </c>
       <c r="C88" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D88" s="2">
@@ -33025,11 +33318,11 @@
         <v>20</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>35|5|648|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>35|5|648|175|1000|0|500</v>
       </c>
       <c r="K88" s="2"/>
       <c r="M88" s="2">
@@ -33050,14 +33343,17 @@
       <c r="R88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S88" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="13.5" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2">
         <v>100202020</v>
       </c>
       <c r="C89" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D89" s="2">
@@ -33076,11 +33372,11 @@
         <v>20</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>49|10|1296|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>49|10|1296|100|500|0|500</v>
       </c>
       <c r="K89" s="2"/>
       <c r="M89" s="2">
@@ -33101,14 +33397,17 @@
       <c r="R89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S89" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="13.5" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2">
         <v>100203020</v>
       </c>
       <c r="C90" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D90" s="2">
@@ -33127,11 +33426,11 @@
         <v>20</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>62|0|864|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>62|0|864|100|250|0|500</v>
       </c>
       <c r="K90" s="2"/>
       <c r="M90" s="2">
@@ -33152,14 +33451,17 @@
       <c r="R90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S90" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="13.5" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2">
         <v>100301021</v>
       </c>
       <c r="C91" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D91" s="2">
@@ -33178,11 +33480,11 @@
         <v>21</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>36|5|738|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>36|5|738|175|1000|0|500</v>
       </c>
       <c r="K91" s="2"/>
       <c r="M91" s="2">
@@ -33203,14 +33505,17 @@
       <c r="R91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S91" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="13.5" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
         <v>100302021</v>
       </c>
       <c r="C92" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D92" s="2">
@@ -33229,11 +33534,11 @@
         <v>21</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>52|11|1477|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>52|11|1477|100|500|0|500</v>
       </c>
       <c r="K92" s="2"/>
       <c r="M92" s="2">
@@ -33254,14 +33559,17 @@
       <c r="R92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S92" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="13.5" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2">
         <v>100303021</v>
       </c>
       <c r="C93" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D93" s="2">
@@ -33280,11 +33588,11 @@
         <v>21</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>65|0|984|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>65|0|984|100|250|0|500</v>
       </c>
       <c r="K93" s="2"/>
       <c r="M93" s="2">
@@ -33305,14 +33613,17 @@
       <c r="R93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S93" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="13.5" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2">
         <v>100304021</v>
       </c>
       <c r="C94" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3004</v>
       </c>
       <c r="D94" s="2">
@@ -33331,11 +33642,11 @@
         <v>21</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>59|5|1230|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>59|5|1230|150|750|0|500</v>
       </c>
       <c r="K94" s="2"/>
       <c r="M94" s="2">
@@ -33356,14 +33667,17 @@
       <c r="R94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S94" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="13.5" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <v>100202021</v>
       </c>
       <c r="C95" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D95" s="2">
@@ -33382,11 +33696,11 @@
         <v>21</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>52|11|1477|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>52|11|1477|100|500|0|500</v>
       </c>
       <c r="K95" s="2"/>
       <c r="M95" s="2">
@@ -33407,14 +33721,17 @@
       <c r="R95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S95" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="13.5" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2">
         <v>100203021</v>
       </c>
       <c r="C96" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D96" s="2">
@@ -33433,11 +33750,11 @@
         <v>21</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J96" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>65|0|984|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>65|0|984|100|250|0|500</v>
       </c>
       <c r="K96" s="2"/>
       <c r="M96" s="2">
@@ -33458,14 +33775,17 @@
       <c r="R96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S96" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="13.5" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2">
         <v>100204021</v>
       </c>
       <c r="C97" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3004</v>
       </c>
       <c r="D97" s="2">
@@ -33484,11 +33804,11 @@
         <v>21</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J97" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>59|5|1230|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>59|5|1230|150|750|0|500</v>
       </c>
       <c r="K97" s="2"/>
       <c r="M97" s="2">
@@ -33509,14 +33829,17 @@
       <c r="R97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S97" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="13.5" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2">
         <v>100301022</v>
       </c>
       <c r="C98" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D98" s="2">
@@ -33535,11 +33858,11 @@
         <v>22</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J98" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>38|6|836|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>38|6|836|175|1000|0|500</v>
       </c>
       <c r="K98" s="2"/>
       <c r="M98" s="2">
@@ -33560,14 +33883,17 @@
       <c r="R98" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S98" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="13.5" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2">
         <v>100302022</v>
       </c>
       <c r="C99" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D99" s="2">
@@ -33586,11 +33912,11 @@
         <v>22</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>54|11|1673|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>54|11|1673|100|500|0|500</v>
       </c>
       <c r="K99" s="2"/>
       <c r="M99" s="2">
@@ -33611,14 +33937,17 @@
       <c r="R99" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S99" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="13.5" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2">
         <v>100303022</v>
       </c>
       <c r="C100" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D100" s="2">
@@ -33637,11 +33966,11 @@
         <v>22</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>67|0|1115|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>67|0|1115|100|250|0|500</v>
       </c>
       <c r="K100" s="2"/>
       <c r="M100" s="2">
@@ -33662,14 +33991,17 @@
       <c r="R100" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S100" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="13.5" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2">
         <v>100304022</v>
       </c>
       <c r="C101" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3004</v>
       </c>
       <c r="D101" s="2">
@@ -33688,11 +34020,11 @@
         <v>22</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>62|6|1394|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>62|6|1394|150|750|0|500</v>
       </c>
       <c r="K101" s="2"/>
       <c r="M101" s="2">
@@ -33713,14 +34045,17 @@
       <c r="R101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S101" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="13.5" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>100201022</v>
       </c>
       <c r="C102" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3001</v>
       </c>
       <c r="D102" s="2">
@@ -33739,11 +34074,11 @@
         <v>22</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J102" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>38|6|836|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>38|6|836|175|1000|0|500</v>
       </c>
       <c r="K102" s="2"/>
       <c r="M102" s="2">
@@ -33764,14 +34099,17 @@
       <c r="R102" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S102" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="13.5" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2">
         <v>100202022</v>
       </c>
       <c r="C103" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3002</v>
       </c>
       <c r="D103" s="2">
@@ -33790,11 +34128,11 @@
         <v>22</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J103" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>54|11|1673|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>54|11|1673|100|500|0|500</v>
       </c>
       <c r="K103" s="2"/>
       <c r="M103" s="2">
@@ -33815,14 +34153,17 @@
       <c r="R103" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S103" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="13.5" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2">
         <v>100203022</v>
       </c>
       <c r="C104" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3003</v>
       </c>
       <c r="D104" s="2">
@@ -33841,11 +34182,11 @@
         <v>22</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J104" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>67|0|1115|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>67|0|1115|100|250|0|500</v>
       </c>
       <c r="K104" s="2"/>
       <c r="M104" s="2">
@@ -33866,14 +34207,17 @@
       <c r="R104" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S104" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="13.5" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2">
         <v>100204022</v>
       </c>
       <c r="C105" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3004</v>
       </c>
       <c r="D105" s="2">
@@ -33892,11 +34236,11 @@
         <v>22</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J105" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>62|6|1394|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>62|6|1394|150|750|0|500</v>
       </c>
       <c r="K105" s="2"/>
       <c r="M105" s="2">
@@ -33917,14 +34261,17 @@
       <c r="R105" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S105" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="13.5" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2">
         <v>100399022</v>
       </c>
       <c r="C106" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_3099</v>
       </c>
       <c r="D106" s="2">
@@ -33943,11 +34290,11 @@
         <v>22</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J106" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>161|28|55754|150|500|0</v>
+        <f t="shared" si="3"/>
+        <v>161|28|55754|150|500|0|500</v>
       </c>
       <c r="K106" s="2"/>
       <c r="M106" s="2">
@@ -33968,14 +34315,17 @@
       <c r="R106" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S106" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="13.5" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2">
         <v>100401023</v>
       </c>
       <c r="C107" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4001</v>
       </c>
       <c r="D107" s="2">
@@ -33994,11 +34344,11 @@
         <v>23</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J107" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>42|6|838|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>42|6|838|175|1000|0|500</v>
       </c>
       <c r="K107" s="2"/>
       <c r="M107" s="2">
@@ -34019,14 +34369,17 @@
       <c r="R107" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S107" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="13.5" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2">
         <v>100402023</v>
       </c>
       <c r="C108" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D108" s="2">
@@ -34045,11 +34398,11 @@
         <v>23</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J108" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>60|12|1676|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>60|12|1676|100|500|0|500</v>
       </c>
       <c r="K108" s="2"/>
       <c r="M108" s="2">
@@ -34070,14 +34423,17 @@
       <c r="R108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S108" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="13.5" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2">
         <v>100401024</v>
       </c>
       <c r="C109" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4001</v>
       </c>
       <c r="D109" s="2">
@@ -34096,11 +34452,11 @@
         <v>24</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J109" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>43|6|944|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>43|6|944|175|1000|0|500</v>
       </c>
       <c r="K109" s="2"/>
       <c r="M109" s="2">
@@ -34121,14 +34477,17 @@
       <c r="R109" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S109" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="13.5" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2">
         <v>100402024</v>
       </c>
       <c r="C110" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D110" s="2">
@@ -34147,11 +34506,11 @@
         <v>24</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J110" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>62|12|1889|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>62|12|1889|100|500|0|500</v>
       </c>
       <c r="K110" s="2"/>
       <c r="M110" s="2">
@@ -34172,14 +34531,17 @@
       <c r="R110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S110" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="13.5" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2">
         <v>100404024</v>
       </c>
       <c r="C111" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4004</v>
       </c>
       <c r="D111" s="2">
@@ -34198,11 +34560,11 @@
         <v>24</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J111" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>71|6|1574|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>71|6|1574|150|750|0|500</v>
       </c>
       <c r="K111" s="2"/>
       <c r="M111" s="2">
@@ -34223,14 +34585,17 @@
       <c r="R111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S111" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="13.5" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2">
         <v>100401025</v>
       </c>
       <c r="C112" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4001</v>
       </c>
       <c r="D112" s="2">
@@ -34249,11 +34614,11 @@
         <v>25</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J112" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>45|6|1059|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>45|6|1059|175|1000|0|500</v>
       </c>
       <c r="K112" s="2"/>
       <c r="M112" s="2">
@@ -34274,14 +34639,17 @@
       <c r="R112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S112" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="13.5" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2">
         <v>100402025</v>
       </c>
       <c r="C113" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D113" s="2">
@@ -34300,11 +34668,11 @@
         <v>25</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J113" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>64|13|2119|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>64|13|2119|100|500|0|500</v>
       </c>
       <c r="K113" s="2"/>
       <c r="M113" s="2">
@@ -34325,14 +34693,17 @@
       <c r="R113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S113" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="13.5" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2">
         <v>100403025</v>
       </c>
       <c r="C114" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4003</v>
       </c>
       <c r="D114" s="2">
@@ -34351,11 +34722,11 @@
         <v>25</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J114" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>80|0|1412|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>80|0|1412|100|250|0|500</v>
       </c>
       <c r="K114" s="2"/>
       <c r="M114" s="2">
@@ -34376,14 +34747,17 @@
       <c r="R114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S114" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="13.5" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2">
         <v>100401026</v>
       </c>
       <c r="C115" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4001</v>
       </c>
       <c r="D115" s="2">
@@ -34402,11 +34776,11 @@
         <v>26</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J115" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>47|7|1183|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>47|7|1183|175|1000|0|500</v>
       </c>
       <c r="K115" s="2"/>
       <c r="M115" s="2">
@@ -34427,14 +34801,17 @@
       <c r="R115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S115" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="13.5" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2">
         <v>100402026</v>
       </c>
       <c r="C116" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D116" s="2">
@@ -34453,11 +34830,11 @@
         <v>26</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J116" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>66|13|2367|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>66|13|2367|100|500|0|500</v>
       </c>
       <c r="K116" s="2"/>
       <c r="M116" s="2">
@@ -34478,14 +34855,17 @@
       <c r="R116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S116" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="13.5" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2">
         <v>100403026</v>
       </c>
       <c r="C117" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4003</v>
       </c>
       <c r="D117" s="2">
@@ -34504,11 +34884,11 @@
         <v>26</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J117" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>83|0|1578|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>83|0|1578|100|250|0|500</v>
       </c>
       <c r="K117" s="2"/>
       <c r="M117" s="2">
@@ -34529,14 +34909,17 @@
       <c r="R117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S117" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="13.5" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2">
         <v>100404026</v>
       </c>
       <c r="C118" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4004</v>
       </c>
       <c r="D118" s="2">
@@ -34555,11 +34938,11 @@
         <v>26</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J118" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>76|7|1972|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>76|7|1972|150|750|0|500</v>
       </c>
       <c r="K118" s="2"/>
       <c r="M118" s="2">
@@ -34580,14 +34963,17 @@
       <c r="R118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S118" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="13.5" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2">
         <v>100302026</v>
       </c>
       <c r="C119" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D119" s="2">
@@ -34606,11 +34992,11 @@
         <v>26</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J119" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>66|13|2367|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>66|13|2367|100|500|0|500</v>
       </c>
       <c r="K119" s="2"/>
       <c r="M119" s="2">
@@ -34631,14 +35017,17 @@
       <c r="R119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S119" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="13.5" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2">
         <v>100303026</v>
       </c>
       <c r="C120" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4003</v>
       </c>
       <c r="D120" s="2">
@@ -34657,11 +35046,11 @@
         <v>26</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J120" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>83|0|1578|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>83|0|1578|100|250|0|500</v>
       </c>
       <c r="K120" s="2"/>
       <c r="M120" s="2">
@@ -34682,14 +35071,17 @@
       <c r="R120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S120" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="13.5" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2">
         <v>100401027</v>
       </c>
       <c r="C121" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4001</v>
       </c>
       <c r="D121" s="2">
@@ -34708,11 +35100,11 @@
         <v>27</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J121" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>48|7|1317|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>48|7|1317|175|1000|0|500</v>
       </c>
       <c r="K121" s="2"/>
       <c r="M121" s="2">
@@ -34733,14 +35125,17 @@
       <c r="R121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S121" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="13.5" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2">
         <v>100402027</v>
       </c>
       <c r="C122" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D122" s="2">
@@ -34759,11 +35154,11 @@
         <v>27</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J122" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>69|14|2633|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>69|14|2633|100|500|0|500</v>
       </c>
       <c r="K122" s="2"/>
       <c r="M122" s="2">
@@ -34784,14 +35179,17 @@
       <c r="R122" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S122" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="13.5" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2">
         <v>100403027</v>
       </c>
       <c r="C123" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4003</v>
       </c>
       <c r="D123" s="2">
@@ -34810,11 +35208,11 @@
         <v>27</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J123" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>86|0|1756|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>86|0|1756|100|250|0|500</v>
       </c>
       <c r="K123" s="2"/>
       <c r="M123" s="2">
@@ -34835,14 +35233,17 @@
       <c r="R123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S123" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="13.5" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2">
         <v>100404027</v>
       </c>
       <c r="C124" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4004</v>
       </c>
       <c r="D124" s="2">
@@ -34861,11 +35262,11 @@
         <v>27</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J124" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>79|7|2195|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>79|7|2195|150|750|0|500</v>
       </c>
       <c r="K124" s="2"/>
       <c r="M124" s="2">
@@ -34886,14 +35287,17 @@
       <c r="R124" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S124" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="13.5" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2">
         <v>100301027</v>
       </c>
       <c r="C125" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4001</v>
       </c>
       <c r="D125" s="2">
@@ -34912,11 +35316,11 @@
         <v>27</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J125" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>48|7|1317|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>48|7|1317|175|1000|0|500</v>
       </c>
       <c r="K125" s="2"/>
       <c r="M125" s="2">
@@ -34937,14 +35341,17 @@
       <c r="R125" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S125" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="13.5" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2">
         <v>100302027</v>
       </c>
       <c r="C126" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D126" s="2">
@@ -34963,11 +35370,11 @@
         <v>27</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J126" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>69|14|2633|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>69|14|2633|100|500|0|500</v>
       </c>
       <c r="K126" s="2"/>
       <c r="M126" s="2">
@@ -34988,14 +35395,17 @@
       <c r="R126" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S126" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="13.5" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2">
         <v>100303027</v>
       </c>
       <c r="C127" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4003</v>
       </c>
       <c r="D127" s="2">
@@ -35014,11 +35424,11 @@
         <v>27</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J127" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>86|0|1756|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>86|0|1756|100|250|0|500</v>
       </c>
       <c r="K127" s="2"/>
       <c r="M127" s="2">
@@ -35039,14 +35449,17 @@
       <c r="R127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S127" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="13.5" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2">
         <v>100304027</v>
       </c>
       <c r="C128" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4004</v>
       </c>
       <c r="D128" s="2">
@@ -35065,11 +35478,11 @@
         <v>27</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J128" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>79|7|2195|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>79|7|2195|150|750|0|500</v>
       </c>
       <c r="K128" s="2"/>
       <c r="M128" s="2">
@@ -35090,14 +35503,17 @@
       <c r="R128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S128" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="13.5" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2">
         <v>100401028</v>
       </c>
       <c r="C129" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4001</v>
       </c>
       <c r="D129" s="2">
@@ -35116,11 +35532,11 @@
         <v>28</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J129" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>50|7|1460|175|1000|0</v>
+        <f t="shared" si="3"/>
+        <v>50|7|1460|175|1000|0|500</v>
       </c>
       <c r="K129" s="2"/>
       <c r="M129" s="2">
@@ -35141,14 +35557,17 @@
       <c r="R129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S129" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="13.5" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2">
         <v>100402028</v>
       </c>
       <c r="C130" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D130" s="2">
@@ -35167,11 +35586,11 @@
         <v>28</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J130" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>71|14|2919|100|500|0</v>
+        <f t="shared" si="3"/>
+        <v>71|14|2919|100|500|0|500</v>
       </c>
       <c r="K130" s="2"/>
       <c r="M130" s="2">
@@ -35192,14 +35611,17 @@
       <c r="R130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S130" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="13.5" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2">
         <v>100403028</v>
       </c>
       <c r="C131" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4003</v>
       </c>
       <c r="D131" s="2">
@@ -35218,11 +35640,11 @@
         <v>28</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J131" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>89|0|1946|100|250|0</v>
+        <f t="shared" si="3"/>
+        <v>89|0|1946|100|250|0|500</v>
       </c>
       <c r="K131" s="2"/>
       <c r="M131" s="2">
@@ -35243,14 +35665,17 @@
       <c r="R131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S131" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="13.5" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2">
         <v>100404028</v>
       </c>
       <c r="C132" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>MonsterName_4004</v>
       </c>
       <c r="D132" s="2">
@@ -35269,11 +35694,11 @@
         <v>28</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J132" s="2" t="str">
-        <f t="shared" ref="J132:J195" si="4">M132&amp;"|"&amp;N132&amp;"|"&amp;O132&amp;"|"&amp;P132&amp;"|"&amp;Q132&amp;"|"&amp;R132</f>
-        <v>82|7|2433|150|750|0</v>
+        <f t="shared" si="3"/>
+        <v>82|7|2433|150|750|0|500</v>
       </c>
       <c r="K132" s="2"/>
       <c r="M132" s="2">
@@ -35294,14 +35719,17 @@
       <c r="R132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S132" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="13.5" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2">
         <v>100301028</v>
       </c>
       <c r="C133" s="4" t="str">
-        <f t="shared" ref="C133:C196" si="5">"MonsterName_"&amp;D133</f>
+        <f t="shared" ref="C133:C196" si="4">"MonsterName_"&amp;D133</f>
         <v>MonsterName_4001</v>
       </c>
       <c r="D133" s="2">
@@ -35320,11 +35748,11 @@
         <v>28</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J133" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>50|7|1460|175|1000|0</v>
+        <f t="shared" ref="J133:J196" si="5">M133&amp;"|"&amp;N133&amp;"|"&amp;O133&amp;"|"&amp;P133&amp;"|"&amp;Q133&amp;"|"&amp;R133&amp;"|"&amp;S133</f>
+        <v>50|7|1460|175|1000|0|500</v>
       </c>
       <c r="K133" s="2"/>
       <c r="M133" s="2">
@@ -35345,14 +35773,17 @@
       <c r="R133" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S133" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="13.5" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2">
         <v>100302028</v>
       </c>
       <c r="C134" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_4002</v>
       </c>
       <c r="D134" s="2">
@@ -35371,11 +35802,11 @@
         <v>28</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J134" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>71|14|2919|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>71|14|2919|100|500|0|500</v>
       </c>
       <c r="K134" s="2"/>
       <c r="M134" s="2">
@@ -35396,14 +35827,17 @@
       <c r="R134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S134" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="13.5" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2">
         <v>100303028</v>
       </c>
       <c r="C135" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_4003</v>
       </c>
       <c r="D135" s="2">
@@ -35422,11 +35856,11 @@
         <v>28</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J135" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>89|0|1946|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>89|0|1946|100|250|0|500</v>
       </c>
       <c r="K135" s="2"/>
       <c r="M135" s="2">
@@ -35447,14 +35881,17 @@
       <c r="R135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S135" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="13.5" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2">
         <v>100304028</v>
       </c>
       <c r="C136" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_4004</v>
       </c>
       <c r="D136" s="2">
@@ -35473,11 +35910,11 @@
         <v>28</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J136" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>82|7|2433|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>82|7|2433|150|750|0|500</v>
       </c>
       <c r="K136" s="2"/>
       <c r="M136" s="2">
@@ -35498,14 +35935,17 @@
       <c r="R136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S136" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="13.5" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2">
         <v>100499028</v>
       </c>
       <c r="C137" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_4099</v>
       </c>
       <c r="D137" s="2">
@@ -35524,11 +35964,11 @@
         <v>28</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J137" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>214|35|97313|150|500|0</v>
+        <f t="shared" si="5"/>
+        <v>214|35|97313|150|500|0|500</v>
       </c>
       <c r="K137" s="2"/>
       <c r="M137" s="2">
@@ -35549,14 +35989,17 @@
       <c r="R137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S137" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="13.5" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2">
         <v>100501029</v>
       </c>
       <c r="C138" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D138" s="2">
@@ -35575,11 +36018,11 @@
         <v>29</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J138" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>55|7|1720|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>55|7|1720|175|1000|0|500</v>
       </c>
       <c r="K138" s="2"/>
       <c r="M138" s="2">
@@ -35600,14 +36043,17 @@
       <c r="R138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S138" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="13.5" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2">
         <v>100502029</v>
       </c>
       <c r="C139" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D139" s="2">
@@ -35626,11 +36072,11 @@
         <v>29</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J139" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>78|15|3440|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>78|15|3440|100|500|0|500</v>
       </c>
       <c r="K139" s="2"/>
       <c r="M139" s="2">
@@ -35651,14 +36097,17 @@
       <c r="R139" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S139" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="13.5" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2">
         <v>100401030</v>
       </c>
       <c r="C140" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D140" s="2">
@@ -35677,11 +36126,11 @@
         <v>30</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J140" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>56|8|1891|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>56|8|1891|175|1000|0|500</v>
       </c>
       <c r="K140" s="2"/>
       <c r="M140" s="2">
@@ -35702,14 +36151,17 @@
       <c r="R140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S140" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="13.5" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2">
         <v>100501030</v>
       </c>
       <c r="C141" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D141" s="2">
@@ -35728,11 +36180,11 @@
         <v>30</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J141" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>56|8|1891|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>56|8|1891|175|1000|0|500</v>
       </c>
       <c r="K141" s="2"/>
       <c r="M141" s="2">
@@ -35753,14 +36205,17 @@
       <c r="R141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S141" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="13.5" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2">
         <v>100502030</v>
       </c>
       <c r="C142" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D142" s="2">
@@ -35779,11 +36234,11 @@
         <v>30</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J142" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>80|15|3781|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>80|15|3781|100|500|0|500</v>
       </c>
       <c r="K142" s="2"/>
       <c r="M142" s="2">
@@ -35804,14 +36259,17 @@
       <c r="R142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S142" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="13.5" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2">
         <v>100503030</v>
       </c>
       <c r="C143" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D143" s="2">
@@ -35830,11 +36288,11 @@
         <v>30</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J143" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>100|0|2521|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>100|0|2521|100|250|0|500</v>
       </c>
       <c r="K143" s="2"/>
       <c r="M143" s="2">
@@ -35855,14 +36313,17 @@
       <c r="R143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S143" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="13.5" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2">
         <v>100401031</v>
       </c>
       <c r="C144" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D144" s="2">
@@ -35881,11 +36342,11 @@
         <v>31</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J144" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>58|8|2072|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>58|8|2072|175|1000|0|500</v>
       </c>
       <c r="K144" s="2"/>
       <c r="M144" s="2">
@@ -35906,14 +36367,17 @@
       <c r="R144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S144" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="13.5" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2">
         <v>100501031</v>
       </c>
       <c r="C145" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D145" s="2">
@@ -35932,11 +36396,11 @@
         <v>31</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J145" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>58|8|2072|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>58|8|2072|175|1000|0|500</v>
       </c>
       <c r="K145" s="2"/>
       <c r="M145" s="2">
@@ -35957,14 +36421,17 @@
       <c r="R145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S145" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="13.5" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2">
         <v>100503031</v>
       </c>
       <c r="C146" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D146" s="2">
@@ -35983,11 +36450,11 @@
         <v>31</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J146" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>104|0|2763|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>104|0|2763|100|250|0|500</v>
       </c>
       <c r="K146" s="2"/>
       <c r="M146" s="2">
@@ -36008,14 +36475,17 @@
       <c r="R146" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S146" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="13.5" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2">
         <v>100504031</v>
       </c>
       <c r="C147" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5004</v>
       </c>
       <c r="D147" s="2">
@@ -36034,11 +36504,11 @@
         <v>31</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J147" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>95|8|3453|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>95|8|3453|150|750|0|500</v>
       </c>
       <c r="K147" s="2"/>
       <c r="M147" s="2">
@@ -36059,14 +36529,17 @@
       <c r="R147" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S147" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="13.5" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2">
         <v>100403031</v>
       </c>
       <c r="C148" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D148" s="2">
@@ -36085,11 +36558,11 @@
         <v>31</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J148" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>104|0|2763|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>104|0|2763|100|250|0|500</v>
       </c>
       <c r="K148" s="2"/>
       <c r="M148" s="2">
@@ -36110,14 +36583,17 @@
       <c r="R148" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S148" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="13.5" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2">
         <v>100401032</v>
       </c>
       <c r="C149" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D149" s="2">
@@ -36136,11 +36612,11 @@
         <v>32</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J149" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>60|8|2264|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>60|8|2264|175|1000|0|500</v>
       </c>
       <c r="K149" s="2"/>
       <c r="M149" s="2">
@@ -36161,14 +36637,17 @@
       <c r="R149" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S149" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="13.5" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2">
         <v>100501032</v>
       </c>
       <c r="C150" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D150" s="2">
@@ -36187,11 +36666,11 @@
         <v>32</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J150" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>60|8|2264|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>60|8|2264|175|1000|0|500</v>
       </c>
       <c r="K150" s="2"/>
       <c r="M150" s="2">
@@ -36212,14 +36691,17 @@
       <c r="R150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S150" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="13.5" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2">
         <v>100502032</v>
       </c>
       <c r="C151" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D151" s="2">
@@ -36238,11 +36720,11 @@
         <v>32</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J151" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>85|16|4529|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>85|16|4529|100|500|0|500</v>
       </c>
       <c r="K151" s="2"/>
       <c r="M151" s="2">
@@ -36263,14 +36745,17 @@
       <c r="R151" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S151" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="13.5" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2">
         <v>100503032</v>
       </c>
       <c r="C152" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D152" s="2">
@@ -36289,11 +36774,11 @@
         <v>32</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J152" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>107|0|3019|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>107|0|3019|100|250|0|500</v>
       </c>
       <c r="K152" s="2"/>
       <c r="M152" s="2">
@@ -36314,14 +36799,17 @@
       <c r="R152" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S152" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="13.5" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2">
         <v>100504032</v>
       </c>
       <c r="C153" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5004</v>
       </c>
       <c r="D153" s="2">
@@ -36340,11 +36828,11 @@
         <v>32</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J153" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>98|8|3774|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>98|8|3774|150|750|0|500</v>
       </c>
       <c r="K153" s="2"/>
       <c r="M153" s="2">
@@ -36365,14 +36853,17 @@
       <c r="R153" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S153" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="13.5" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
         <v>100402032</v>
       </c>
       <c r="C154" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D154" s="2">
@@ -36391,11 +36882,11 @@
         <v>32</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J154" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>85|16|4529|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>85|16|4529|100|500|0|500</v>
       </c>
       <c r="K154" s="2"/>
       <c r="M154" s="2">
@@ -36416,14 +36907,17 @@
       <c r="R154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S154" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="13.5" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2">
         <v>100403032</v>
       </c>
       <c r="C155" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D155" s="2">
@@ -36442,11 +36936,11 @@
         <v>32</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J155" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>107|0|3019|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>107|0|3019|100|250|0|500</v>
       </c>
       <c r="K155" s="2"/>
       <c r="M155" s="2">
@@ -36467,14 +36961,17 @@
       <c r="R155" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S155" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="13.5" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2">
         <v>100404032</v>
       </c>
       <c r="C156" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5004</v>
       </c>
       <c r="D156" s="2">
@@ -36493,11 +36990,11 @@
         <v>32</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J156" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>98|8|3774|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>98|8|3774|150|750|0|500</v>
       </c>
       <c r="K156" s="2"/>
       <c r="M156" s="2">
@@ -36518,14 +37015,17 @@
       <c r="R156" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S156" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="13.5" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2">
         <v>100401033</v>
       </c>
       <c r="C157" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D157" s="2">
@@ -36544,11 +37044,11 @@
         <v>33</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J157" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>61|8|2468|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>61|8|2468|175|1000|0|500</v>
       </c>
       <c r="K157" s="2"/>
       <c r="M157" s="2">
@@ -36569,14 +37069,17 @@
       <c r="R157" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S157" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="13.5" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2">
         <v>100501033</v>
       </c>
       <c r="C158" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D158" s="2">
@@ -36595,11 +37098,11 @@
         <v>33</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J158" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>61|8|2468|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>61|8|2468|175|1000|0|500</v>
       </c>
       <c r="K158" s="2"/>
       <c r="M158" s="2">
@@ -36620,14 +37123,17 @@
       <c r="R158" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S158" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="13.5" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2">
         <v>100502033</v>
       </c>
       <c r="C159" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D159" s="2">
@@ -36646,11 +37152,11 @@
         <v>33</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J159" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>88|17|4937|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>88|17|4937|100|500|0|500</v>
       </c>
       <c r="K159" s="2"/>
       <c r="M159" s="2">
@@ -36671,14 +37177,17 @@
       <c r="R159" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S159" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="13.5" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2">
         <v>100503033</v>
       </c>
       <c r="C160" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D160" s="2">
@@ -36697,11 +37206,11 @@
         <v>33</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J160" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>110|0|3291|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>110|0|3291|100|250|0|500</v>
       </c>
       <c r="K160" s="2"/>
       <c r="M160" s="2">
@@ -36722,14 +37231,17 @@
       <c r="R160" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S160" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="13.5" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2">
         <v>100504033</v>
       </c>
       <c r="C161" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5004</v>
       </c>
       <c r="D161" s="2">
@@ -36748,11 +37260,11 @@
         <v>33</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J161" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>101|8|4114|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>101|8|4114|150|750|0|500</v>
       </c>
       <c r="K161" s="2"/>
       <c r="M161" s="2">
@@ -36773,14 +37285,17 @@
       <c r="R161" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S161" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="13.5" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2">
         <v>100402033</v>
       </c>
       <c r="C162" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D162" s="2">
@@ -36799,11 +37314,11 @@
         <v>33</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J162" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>88|17|4937|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>88|17|4937|100|500|0|500</v>
       </c>
       <c r="K162" s="2"/>
       <c r="M162" s="2">
@@ -36824,14 +37339,17 @@
       <c r="R162" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S162" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="13.5" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2">
         <v>100401034</v>
       </c>
       <c r="C163" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D163" s="2">
@@ -36850,11 +37368,11 @@
         <v>34</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J163" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>63|9|2684|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>63|9|2684|175|1000|0|500</v>
       </c>
       <c r="K163" s="2"/>
       <c r="M163" s="2">
@@ -36875,14 +37393,17 @@
       <c r="R163" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S163" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="13.5" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2">
         <v>100501034</v>
       </c>
       <c r="C164" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D164" s="2">
@@ -36901,11 +37422,11 @@
         <v>34</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J164" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>63|9|2684|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>63|9|2684|175|1000|0|500</v>
       </c>
       <c r="K164" s="2"/>
       <c r="M164" s="2">
@@ -36926,14 +37447,17 @@
       <c r="R164" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S164" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="13.5" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2">
         <v>100502034</v>
       </c>
       <c r="C165" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D165" s="2">
@@ -36952,11 +37476,11 @@
         <v>34</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J165" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>90|17|5369|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>90|17|5369|100|500|0|500</v>
       </c>
       <c r="K165" s="2"/>
       <c r="M165" s="2">
@@ -36977,14 +37501,17 @@
       <c r="R165" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S165" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="13.5" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2">
         <v>100503034</v>
       </c>
       <c r="C166" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D166" s="2">
@@ -37003,11 +37530,11 @@
         <v>34</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J166" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>113|0|3579|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>113|0|3579|100|250|0|500</v>
       </c>
       <c r="K166" s="2"/>
       <c r="M166" s="2">
@@ -37028,14 +37555,17 @@
       <c r="R166" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S166" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="13.5" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2">
         <v>100504034</v>
       </c>
       <c r="C167" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5004</v>
       </c>
       <c r="D167" s="2">
@@ -37054,11 +37584,11 @@
         <v>34</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J167" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>104|9|4474|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>104|9|4474|150|750|0|500</v>
       </c>
       <c r="K167" s="2"/>
       <c r="M167" s="2">
@@ -37079,14 +37609,17 @@
       <c r="R167" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S167" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="13.5" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2">
         <v>100403034</v>
       </c>
       <c r="C168" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D168" s="2">
@@ -37105,11 +37638,11 @@
         <v>34</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J168" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>113|0|3579|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>113|0|3579|100|250|0|500</v>
       </c>
       <c r="K168" s="2"/>
       <c r="M168" s="2">
@@ -37130,14 +37663,17 @@
       <c r="R168" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S168" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="13.5" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2">
         <v>100404034</v>
       </c>
       <c r="C169" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5004</v>
       </c>
       <c r="D169" s="2">
@@ -37156,11 +37692,11 @@
         <v>34</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J169" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>104|9|4474|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>104|9|4474|150|750|0|500</v>
       </c>
       <c r="K169" s="2"/>
       <c r="M169" s="2">
@@ -37181,14 +37717,17 @@
       <c r="R169" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S169" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="13.5" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2">
         <v>100401035</v>
       </c>
       <c r="C170" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D170" s="2">
@@ -37207,11 +37746,11 @@
         <v>35</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J170" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>65|9|2913|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>65|9|2913|175|1000|0|500</v>
       </c>
       <c r="K170" s="2"/>
       <c r="M170" s="2">
@@ -37232,14 +37771,17 @@
       <c r="R170" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S170" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="13.5" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2">
         <v>100501035</v>
       </c>
       <c r="C171" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5001</v>
       </c>
       <c r="D171" s="2">
@@ -37258,11 +37800,11 @@
         <v>35</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J171" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>65|9|2913|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>65|9|2913|175|1000|0|500</v>
       </c>
       <c r="K171" s="2"/>
       <c r="M171" s="2">
@@ -37283,14 +37825,17 @@
       <c r="R171" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S171" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="13.5" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2">
         <v>100502035</v>
       </c>
       <c r="C172" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D172" s="2">
@@ -37309,11 +37854,11 @@
         <v>35</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J172" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>93|18|5825|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>93|18|5825|100|500|0|500</v>
       </c>
       <c r="K172" s="2"/>
       <c r="M172" s="2">
@@ -37334,14 +37879,17 @@
       <c r="R172" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S172" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="13.5" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2">
         <v>100503035</v>
       </c>
       <c r="C173" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D173" s="2">
@@ -37360,11 +37908,11 @@
         <v>35</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J173" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>116|0|3884|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>116|0|3884|100|250|0|500</v>
       </c>
       <c r="K173" s="2"/>
       <c r="M173" s="2">
@@ -37385,14 +37933,17 @@
       <c r="R173" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S173" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="13.5" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2">
         <v>100504035</v>
       </c>
       <c r="C174" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5004</v>
       </c>
       <c r="D174" s="2">
@@ -37411,11 +37962,11 @@
         <v>35</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J174" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>107|9|4855|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>107|9|4855|150|750|0|500</v>
       </c>
       <c r="K174" s="2"/>
       <c r="M174" s="2">
@@ -37436,14 +37987,17 @@
       <c r="R174" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S174" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="13.5" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2">
         <v>100402035</v>
       </c>
       <c r="C175" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5002</v>
       </c>
       <c r="D175" s="2">
@@ -37462,11 +38016,11 @@
         <v>35</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J175" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>93|18|5825|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>93|18|5825|100|500|0|500</v>
       </c>
       <c r="K175" s="2"/>
       <c r="M175" s="2">
@@ -37487,14 +38041,17 @@
       <c r="R175" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S175" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="13.5" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2">
         <v>100403035</v>
       </c>
       <c r="C176" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5003</v>
       </c>
       <c r="D176" s="2">
@@ -37513,11 +38070,11 @@
         <v>35</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J176" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>116|0|3884|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>116|0|3884|100|250|0|500</v>
       </c>
       <c r="K176" s="2"/>
       <c r="M176" s="2">
@@ -37538,14 +38095,17 @@
       <c r="R176" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S176" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="13.5" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2">
         <v>100404035</v>
       </c>
       <c r="C177" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5004</v>
       </c>
       <c r="D177" s="2">
@@ -37564,11 +38124,11 @@
         <v>35</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J177" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>107|9|4855|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>107|9|4855|150|750|0|500</v>
       </c>
       <c r="K177" s="2"/>
       <c r="M177" s="2">
@@ -37589,14 +38149,17 @@
       <c r="R177" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S177" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" ht="13.5" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2">
         <v>100599035</v>
       </c>
       <c r="C178" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_5099</v>
       </c>
       <c r="D178" s="2">
@@ -37615,11 +38178,11 @@
         <v>35</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J178" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>278|44|194180|150|500|0</v>
+        <f t="shared" si="5"/>
+        <v>278|44|194180|150|500|0|500</v>
       </c>
       <c r="K178" s="2"/>
       <c r="M178" s="2">
@@ -37640,14 +38203,17 @@
       <c r="R178" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S178" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" ht="13.5" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2">
         <v>100601036</v>
       </c>
       <c r="C179" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6001</v>
       </c>
       <c r="D179" s="2">
@@ -37666,11 +38232,11 @@
         <v>36</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J179" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>70|9|2911|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>70|9|2911|175|1000|0|500</v>
       </c>
       <c r="K179" s="2"/>
       <c r="M179" s="2">
@@ -37691,14 +38257,17 @@
       <c r="R179" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S179" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="13.5" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2">
         <v>100602036</v>
       </c>
       <c r="C180" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6002</v>
       </c>
       <c r="D180" s="2">
@@ -37717,11 +38286,11 @@
         <v>36</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J180" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>101|18|5822|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>101|18|5822|100|500|0|500</v>
       </c>
       <c r="K180" s="2"/>
       <c r="M180" s="2">
@@ -37742,14 +38311,17 @@
       <c r="R180" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S180" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" ht="13.5" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2">
         <v>100601037</v>
       </c>
       <c r="C181" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6001</v>
       </c>
       <c r="D181" s="2">
@@ -37768,11 +38340,11 @@
         <v>37</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J181" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>72|9|3070|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>72|9|3070|175|1000|0|500</v>
       </c>
       <c r="K181" s="2"/>
       <c r="M181" s="2">
@@ -37793,14 +38365,17 @@
       <c r="R181" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S181" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="13.5" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2">
         <v>100602037</v>
       </c>
       <c r="C182" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6002</v>
       </c>
       <c r="D182" s="2">
@@ -37819,11 +38394,11 @@
         <v>37</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J182" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>103|19|6140|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>103|19|6140|100|500|0|500</v>
       </c>
       <c r="K182" s="2"/>
       <c r="M182" s="2">
@@ -37844,14 +38419,17 @@
       <c r="R182" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S182" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" ht="13.5" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2">
         <v>100604037</v>
       </c>
       <c r="C183" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6004</v>
       </c>
       <c r="D183" s="2">
@@ -37870,11 +38448,11 @@
         <v>37</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J183" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>119|9|5116|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>119|9|5116|150|750|0|500</v>
       </c>
       <c r="K183" s="2"/>
       <c r="M183" s="2">
@@ -37895,14 +38473,17 @@
       <c r="R183" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S183" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" ht="13.5" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2">
         <v>100401038</v>
       </c>
       <c r="C184" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6001</v>
       </c>
       <c r="D184" s="2">
@@ -37921,11 +38502,11 @@
         <v>38</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J184" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>74|10|3233|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>74|10|3233|175|1000|0|500</v>
       </c>
       <c r="K184" s="2"/>
       <c r="M184" s="2">
@@ -37946,14 +38527,17 @@
       <c r="R184" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S184" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" ht="13.5" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2">
         <v>100601038</v>
       </c>
       <c r="C185" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6001</v>
       </c>
       <c r="D185" s="2">
@@ -37972,11 +38556,11 @@
         <v>38</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J185" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>74|10|3233|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>74|10|3233|175|1000|0|500</v>
       </c>
       <c r="K185" s="2"/>
       <c r="M185" s="2">
@@ -37997,14 +38581,17 @@
       <c r="R185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S185" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" ht="13.5" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
         <v>100602038</v>
       </c>
       <c r="C186" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6002</v>
       </c>
       <c r="D186" s="2">
@@ -38023,11 +38610,11 @@
         <v>38</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J186" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>106|19|6466|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>106|19|6466|100|500|0|500</v>
       </c>
       <c r="K186" s="2"/>
       <c r="M186" s="2">
@@ -38048,14 +38635,17 @@
       <c r="R186" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S186" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" ht="13.5" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2">
         <v>100603038</v>
       </c>
       <c r="C187" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6003</v>
       </c>
       <c r="D187" s="2">
@@ -38074,11 +38664,11 @@
         <v>38</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J187" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>132|0|4311|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>132|0|4311|100|250|0|500</v>
       </c>
       <c r="K187" s="2"/>
       <c r="M187" s="2">
@@ -38099,14 +38689,17 @@
       <c r="R187" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S187" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" ht="13.5" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2">
         <v>100503038</v>
       </c>
       <c r="C188" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6003</v>
       </c>
       <c r="D188" s="2">
@@ -38125,11 +38718,11 @@
         <v>38</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J188" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>132|0|4311|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>132|0|4311|100|250|0|500</v>
       </c>
       <c r="K188" s="2"/>
       <c r="M188" s="2">
@@ -38150,14 +38743,17 @@
       <c r="R188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S188" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" ht="13.5" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2">
         <v>100401039</v>
       </c>
       <c r="C189" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6001</v>
       </c>
       <c r="D189" s="2">
@@ -38176,11 +38772,11 @@
         <v>39</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J189" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>76|10|3400|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>76|10|3400|175|1000|0|500</v>
       </c>
       <c r="K189" s="2"/>
       <c r="M189" s="2">
@@ -38201,14 +38797,17 @@
       <c r="R189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S189" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" ht="13.5" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2">
         <v>100601039</v>
       </c>
       <c r="C190" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6001</v>
       </c>
       <c r="D190" s="2">
@@ -38227,11 +38826,11 @@
         <v>39</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J190" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>76|10|3400|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>76|10|3400|175|1000|0|500</v>
       </c>
       <c r="K190" s="2"/>
       <c r="M190" s="2">
@@ -38252,14 +38851,17 @@
       <c r="R190" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S190" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" ht="13.5" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2">
         <v>100602039</v>
       </c>
       <c r="C191" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6002</v>
       </c>
       <c r="D191" s="2">
@@ -38278,11 +38880,11 @@
         <v>39</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J191" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>108|20|6801|100|500|0</v>
+        <f t="shared" si="5"/>
+        <v>108|20|6801|100|500|0|500</v>
       </c>
       <c r="K191" s="2"/>
       <c r="M191" s="2">
@@ -38303,14 +38905,17 @@
       <c r="R191" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S191" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" ht="13.5" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2">
         <v>100603039</v>
       </c>
       <c r="C192" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6003</v>
       </c>
       <c r="D192" s="2">
@@ -38329,11 +38934,11 @@
         <v>39</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J192" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>135|0|4534|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>135|0|4534|100|250|0|500</v>
       </c>
       <c r="K192" s="2"/>
       <c r="M192" s="2">
@@ -38354,14 +38959,17 @@
       <c r="R192" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S192" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="13.5" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2">
         <v>100604039</v>
       </c>
       <c r="C193" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6004</v>
       </c>
       <c r="D193" s="2">
@@ -38380,11 +38988,11 @@
         <v>39</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J193" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>125|10|5667|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>125|10|5667|150|750|0|500</v>
       </c>
       <c r="K193" s="2"/>
       <c r="M193" s="2">
@@ -38405,14 +39013,17 @@
       <c r="R193" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S193" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" ht="13.5" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2">
         <v>100503039</v>
       </c>
       <c r="C194" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6003</v>
       </c>
       <c r="D194" s="2">
@@ -38431,11 +39042,11 @@
         <v>39</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J194" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>135|0|4534|100|250|0</v>
+        <f t="shared" si="5"/>
+        <v>135|0|4534|100|250|0|500</v>
       </c>
       <c r="K194" s="2"/>
       <c r="M194" s="2">
@@ -38456,14 +39067,17 @@
       <c r="R194" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S194" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" ht="13.5" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2">
         <v>100504039</v>
       </c>
       <c r="C195" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6004</v>
       </c>
       <c r="D195" s="2">
@@ -38482,11 +39096,11 @@
         <v>39</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J195" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>125|10|5667|150|750|0</v>
+        <f t="shared" si="5"/>
+        <v>125|10|5667|150|750|0|500</v>
       </c>
       <c r="K195" s="2"/>
       <c r="M195" s="2">
@@ -38507,14 +39121,17 @@
       <c r="R195" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S195" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" ht="13.5" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2">
         <v>100401040</v>
       </c>
       <c r="C196" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>MonsterName_6001</v>
       </c>
       <c r="D196" s="2">
@@ -38533,11 +39150,11 @@
         <v>40</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J196" s="2" t="str">
-        <f t="shared" ref="J196:J205" si="6">M196&amp;"|"&amp;N196&amp;"|"&amp;O196&amp;"|"&amp;P196&amp;"|"&amp;Q196&amp;"|"&amp;R196</f>
-        <v>78|10|3572|175|1000|0</v>
+        <f t="shared" si="5"/>
+        <v>78|10|3572|175|1000|0|500</v>
       </c>
       <c r="K196" s="2"/>
       <c r="M196" s="2">
@@ -38558,14 +39175,17 @@
       <c r="R196" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S196" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="13.5" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2">
         <v>100601040</v>
       </c>
       <c r="C197" s="4" t="str">
-        <f t="shared" ref="C197:C205" si="7">"MonsterName_"&amp;D197</f>
+        <f t="shared" ref="C197:C205" si="6">"MonsterName_"&amp;D197</f>
         <v>MonsterName_6001</v>
       </c>
       <c r="D197" s="2">
@@ -38584,11 +39204,11 @@
         <v>40</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J197" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>78|10|3572|175|1000|0</v>
+        <f t="shared" ref="J197:J205" si="7">M197&amp;"|"&amp;N197&amp;"|"&amp;O197&amp;"|"&amp;P197&amp;"|"&amp;Q197&amp;"|"&amp;R197&amp;"|"&amp;S197</f>
+        <v>78|10|3572|175|1000|0|500</v>
       </c>
       <c r="K197" s="2"/>
       <c r="M197" s="2">
@@ -38609,14 +39229,17 @@
       <c r="R197" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S197" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" ht="13.5" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2">
         <v>100602040</v>
       </c>
       <c r="C198" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MonsterName_6002</v>
       </c>
       <c r="D198" s="2">
@@ -38635,11 +39258,11 @@
         <v>40</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J198" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>111|20|7144|100|500|0</v>
+        <f t="shared" si="7"/>
+        <v>111|20|7144|100|500|0|500</v>
       </c>
       <c r="K198" s="2"/>
       <c r="M198" s="2">
@@ -38660,14 +39283,17 @@
       <c r="R198" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S198" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" ht="13.5" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2">
         <v>100603040</v>
       </c>
       <c r="C199" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MonsterName_6003</v>
       </c>
       <c r="D199" s="2">
@@ -38686,11 +39312,11 @@
         <v>40</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J199" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>139|0|4763|100|250|0</v>
+        <f t="shared" si="7"/>
+        <v>139|0|4763|100|250|0|500</v>
       </c>
       <c r="K199" s="2"/>
       <c r="M199" s="2">
@@ -38711,14 +39337,17 @@
       <c r="R199" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S199" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" ht="13.5" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2">
         <v>100604040</v>
       </c>
       <c r="C200" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MonsterName_6004</v>
       </c>
       <c r="D200" s="2">
@@ -38737,11 +39366,11 @@
         <v>40</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J200" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>128|10|5953|150|750|0</v>
+        <f t="shared" si="7"/>
+        <v>128|10|5953|150|750|0|500</v>
       </c>
       <c r="K200" s="2"/>
       <c r="M200" s="2">
@@ -38762,14 +39391,17 @@
       <c r="R200" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S200" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" ht="13.5" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2">
         <v>100501040</v>
       </c>
       <c r="C201" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MonsterName_6001</v>
       </c>
       <c r="D201" s="2">
@@ -38788,11 +39420,11 @@
         <v>40</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J201" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>78|10|3572|175|1000|0</v>
+        <f t="shared" si="7"/>
+        <v>78|10|3572|175|1000|0|500</v>
       </c>
       <c r="K201" s="2"/>
       <c r="M201" s="2">
@@ -38813,14 +39445,17 @@
       <c r="R201" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S201" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" ht="13.5" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2">
         <v>100502040</v>
       </c>
       <c r="C202" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MonsterName_6002</v>
       </c>
       <c r="D202" s="2">
@@ -38839,11 +39474,11 @@
         <v>40</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J202" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>111|20|7144|100|500|0</v>
+        <f t="shared" si="7"/>
+        <v>111|20|7144|100|500|0|500</v>
       </c>
       <c r="K202" s="2"/>
       <c r="M202" s="2">
@@ -38864,14 +39499,17 @@
       <c r="R202" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S202" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" ht="13.5" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2">
         <v>100503040</v>
       </c>
       <c r="C203" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MonsterName_6003</v>
       </c>
       <c r="D203" s="2">
@@ -38890,11 +39528,11 @@
         <v>40</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J203" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>139|0|4763|100|250|0</v>
+        <f t="shared" si="7"/>
+        <v>139|0|4763|100|250|0|500</v>
       </c>
       <c r="K203" s="2"/>
       <c r="M203" s="2">
@@ -38915,14 +39553,17 @@
       <c r="R203" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S203" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" ht="13.5" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2">
         <v>100504040</v>
       </c>
       <c r="C204" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MonsterName_6004</v>
       </c>
       <c r="D204" s="2">
@@ -38941,11 +39582,11 @@
         <v>40</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J204" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>128|10|5953|150|750|0</v>
+        <f t="shared" si="7"/>
+        <v>128|10|5953|150|750|0|500</v>
       </c>
       <c r="K204" s="2"/>
       <c r="M204" s="2">
@@ -38966,14 +39607,17 @@
       <c r="R204" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:18" ht="13.5" customHeight="1">
+      <c r="S204" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" ht="13.5" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2">
         <v>100699040</v>
       </c>
       <c r="C205" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>MonsterName_6099</v>
       </c>
       <c r="D205" s="2">
@@ -38992,11 +39636,11 @@
         <v>40</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J205" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>333|50|238125|150|500|0</v>
+        <f t="shared" si="7"/>
+        <v>333|50|238125|150|500|0|500</v>
       </c>
       <c r="K205" s="2"/>
       <c r="M205" s="2">
@@ -39017,11 +39661,14 @@
       <c r="R205" s="2">
         <v>0</v>
       </c>
+      <c r="S205" s="2">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:K2 M2:R2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:K2 M2:R2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
@@ -39031,16 +39678,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
@@ -39048,28 +39695,28 @@
         <v>4</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
@@ -39109,30 +39756,30 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -39161,7 +39808,7 @@
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -39190,7 +39837,7 @@
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -40215,7 +40862,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:I2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:I2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
